--- a/data/cleaned/predictors.xlsx
+++ b/data/cleaned/predictors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe Cat\Desktop\JHSPH_Courses\Term6\AdvDataSci\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\JHSPH_Courses\Term6\AdvDataSci\Final\140.712.project\data\cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927BFB17-E4E9-4F7A-9D9B-1D378416048B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF61DE-EC9B-4F18-B3BC-FE1A6399267F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1ED5ECCC-24DB-4FFE-98F4-39DED63EE1A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1ED5ECCC-24DB-4FFE-98F4-39DED63EE1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>Predictor</t>
   </si>
@@ -72,21 +72,12 @@
     <t>pitcher throwing hand (L/R)</t>
   </si>
   <si>
-    <t>release_pos*?</t>
-  </si>
-  <si>
     <t>pfx_x</t>
   </si>
   <si>
     <t>pfx_z</t>
   </si>
   <si>
-    <t>release_pos_x &amp; plate_x?</t>
-  </si>
-  <si>
-    <t>release_pos_z &amp; plate_z?</t>
-  </si>
-  <si>
     <t>on_1b</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>effective_speed</t>
   </si>
   <si>
-    <t>release_speed &amp; release_extension?</t>
-  </si>
-  <si>
     <t>release_spin</t>
   </si>
   <si>
@@ -207,15 +195,6 @@
     <t>release extension of pitch in feet as tracked by Statcast</t>
   </si>
   <si>
-    <t>release_extension?</t>
-  </si>
-  <si>
-    <t>release_pos_y?</t>
-  </si>
-  <si>
-    <t>Redundant? (ie derived from or analog to other stats in the set)</t>
-  </si>
-  <si>
     <t>pitch_number</t>
   </si>
   <si>
@@ -243,15 +222,9 @@
     <t>zone</t>
   </si>
   <si>
-    <t>join with other data set?</t>
-  </si>
-  <si>
     <t>categorical zone of where pitch crosses plate (1-14)</t>
   </si>
   <si>
-    <t>plate_x &amp; plate_z</t>
-  </si>
-  <si>
     <t>fielder_*</t>
   </si>
   <si>
@@ -315,48 +288,12 @@
     <t>top sprint speed from that season (pitcher data appears to be missing)</t>
   </si>
   <si>
-    <t>sprint speed data</t>
-  </si>
-  <si>
-    <t>***defensive stats</t>
-  </si>
-  <si>
-    <t>defensive stat*** - fangraphs, and/or pitcher quality stat?</t>
-  </si>
-  <si>
-    <t>defensive stat*** - fangraphs</t>
-  </si>
-  <si>
-    <t>UZR/150</t>
-  </si>
-  <si>
-    <t>benefits/limitations</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>not standardized to playing time, but we have innings</t>
-  </si>
-  <si>
-    <t>fangraphs all-encompassing stat; not standardized to playing time, but we have innings; missing for pitchers; has positional adjustment</t>
-  </si>
-  <si>
-    <t>DRS</t>
-  </si>
-  <si>
     <t>sprint_speed</t>
   </si>
   <si>
     <t>partially</t>
   </si>
   <si>
-    <t>probably derived from several of the raw pitch statistics</t>
-  </si>
-  <si>
-    <t>standardized to playing time; missing for pitchers, catchers</t>
-  </si>
-  <si>
     <t>id runner on first (could be turned to T/F or sprint speed)</t>
   </si>
   <si>
@@ -364,6 +301,9 @@
   </si>
   <si>
     <t>id runner on third (could be turned to T/F or sprint speed)</t>
+  </si>
+  <si>
+    <t>Join DRS/1000 innings from fangraphs</t>
   </si>
 </sst>
 </file>
@@ -715,22 +655,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BFDD61-87BD-46A4-AD98-8CFC863666D1}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,14 +680,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -758,57 +692,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -819,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -829,466 +757,407 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
